--- a/GraficasProcesos.xlsx
+++ b/GraficasProcesos.xlsx
@@ -8,14 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anahernandez/Documents/3/ALGORITMOS Y DATOS/HDT5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896B2273-C33E-2448-A04F-D1D806FC9C4E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D483D87-75B2-094C-8CFC-F908BA2B684B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13400" yWindow="460" windowWidth="15420" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IncisoC" sheetId="1" r:id="rId1"/>
     <sheet name="IncisoB" sheetId="2" r:id="rId2"/>
+    <sheet name="IncisoA" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">IncisoC!$A$20:$A$24</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">IncisoC!$B$19</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">IncisoC!$B$20:$B$24</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>Memoria a 200</t>
   </si>
@@ -68,6 +74,12 @@
   </si>
   <si>
     <t>Intervalos de 1</t>
+  </si>
+  <si>
+    <t>Tiempo Promedio</t>
+  </si>
+  <si>
+    <t>Intervalos de 10</t>
   </si>
 </sst>
 </file>
@@ -451,6 +463,972 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Intervalos de 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>IncisoB!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>IncisoB!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>21.29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>165.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CAAC-0E4B-967F-89542254406E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1937175391"/>
+        <c:axId val="1937371311"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1937175391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1937371311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1937371311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1937175391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Intervalos de 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>IncisoB!$A$22:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>IncisoB!$B$22:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>26.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>137.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D4BF-8245-B933-80381B85B89D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1937090415"/>
+        <c:axId val="2010245423"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1937090415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2010245423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2010245423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1937090415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Procesos vs Tiempo (Intervalos de 10)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>IncisoA!$A$4:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>IncisoA!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129.83000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>163.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6418-F443-868B-A8B4DE8549EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2010707999"/>
+        <c:axId val="2010611583"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2010707999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2010611583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2010611583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2010707999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -3372,6 +4350,126 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4247,6 +5345,1554 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -8704,6 +11350,124 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7955B966-47F1-1B49-9B47-657BA5A8B0D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2FCEBE3-06EF-F54F-8374-AF412ED78BB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D53DF02B-8C72-0341-B660-B0DB874ABCA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9003,7 +11767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AA47" sqref="AA47"/>
     </sheetView>
   </sheetViews>
@@ -9438,8 +12202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C56B7B5-B314-0940-927E-8A70857F2DDA}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9561,5 +12325,80 @@
     <mergeCell ref="A20:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A70239D-A935-1349-86F0-38BED7AC1BD1}">
+  <dimension ref="A2:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>20.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>33.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <v>87.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>150</v>
+      </c>
+      <c r="B7">
+        <v>129.83000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>200</v>
+      </c>
+      <c r="B8">
+        <v>163.84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/GraficasProcesos.xlsx
+++ b/GraficasProcesos.xlsx
@@ -8,20 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anahernandez/Documents/3/ALGORITMOS Y DATOS/HDT5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D483D87-75B2-094C-8CFC-F908BA2B684B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927E556F-F3F5-9243-8DA7-C049E5930A73}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="IncisoC" sheetId="1" r:id="rId1"/>
+    <sheet name="IncisoC" sheetId="4" r:id="rId1"/>
     <sheet name="IncisoB" sheetId="2" r:id="rId2"/>
     <sheet name="IncisoA" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">IncisoC!$A$20:$A$24</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">IncisoC!$B$19</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">IncisoC!$B$20:$B$24</definedName>
-  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,19 +29,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
-    <t>Memoria a 200</t>
-  </si>
-  <si>
     <t>Procesos</t>
   </si>
   <si>
     <t>Tiempo</t>
-  </si>
-  <si>
-    <t>Memoria a 100 pero 6 instrucciones por unidad de tiempo</t>
-  </si>
-  <si>
-    <t>Velocidad normal con 2 procesdores</t>
   </si>
   <si>
     <t>Memoria 200(Intervalo de 5)</t>
@@ -80,6 +66,15 @@
   </si>
   <si>
     <t>Intervalos de 10</t>
+  </si>
+  <si>
+    <t>Memoria a 200 (intervalos de 10)</t>
+  </si>
+  <si>
+    <t>Memoria a 100 pero 6 instrucciones por unidad de tiempo (intervalos de 10)</t>
+  </si>
+  <si>
+    <t>Velocidad normal con 2 procesdores (intervalos de 10)</t>
   </si>
 </sst>
 </file>
@@ -314,7 +309,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7079-4BFC-BD67-B9A171D92A46}"/>
+              <c16:uniqueId val="{00000000-83B2-2B47-98B2-654D2A6C9C41}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -665,6 +660,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Cantidad de procesos</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -727,6 +782,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tiempo Promedio (seg)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -987,6 +1102,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Cantidad de procesos</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1049,6 +1224,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tiempo promedio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1309,6 +1541,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cantidad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> de procesos</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1371,6 +1663,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tiempo promedio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1633,7 +1980,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-78D9-4A8A-B44B-87DB1021FEEB}"/>
+              <c16:uniqueId val="{00000000-04FA-394C-AF61-5D9C7CD18BB3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1986,7 +2333,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0067-408E-A299-01DF19AC0394}"/>
+              <c16:uniqueId val="{00000000-E7BE-F149-9881-3418BC8DD4A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2334,7 +2681,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-590E-4D6C-B59D-F32E92A66B66}"/>
+              <c16:uniqueId val="{00000000-93DF-2549-94B2-4D969C4C6124}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2695,7 +3042,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-64F0-4B71-A707-820CCD22E685}"/>
+              <c16:uniqueId val="{00000000-0775-454A-B5E7-C8C9FFE2D1FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3043,7 +3390,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5BEA-40E5-80EE-74B58C24DBA6}"/>
+              <c16:uniqueId val="{00000000-C34D-3A4A-90CA-F16C158B554B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3451,7 +3798,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-933E-4768-85BA-6EC16B55229D}"/>
+              <c16:uniqueId val="{00000000-E96A-8640-9C9F-1F544922132E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3812,7 +4159,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-703B-473B-9CEE-A15DD9AC6B4E}"/>
+              <c16:uniqueId val="{00000000-D899-0047-855E-B2A00DE0B466}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4165,7 +4512,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4073-4287-9261-9A58B116266A}"/>
+              <c16:uniqueId val="{00000000-D7A0-514F-A004-5E2745387749}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11041,11 +11388,13 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02E4A542-15E9-41D6-A588-52E379A809FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B49A937-5DFC-9A4C-B10D-980272DF2907}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -11077,11 +11426,13 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26A83D04-13E6-4FA1-8CE6-558082CCE2D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF083C86-B934-3142-B546-C03BFF9F1C2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -11113,11 +11464,13 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41DFD7C4-AAF0-41BD-9AA5-3165BF3E26D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B123582-1F90-644C-A240-D66B5E3B8AE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -11149,11 +11502,13 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8296A2CB-9F00-41AD-B79F-DF1749A6925F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86752653-AFD7-ED44-A495-6D4EB6BADE52}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -11185,11 +11540,13 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1E8B9B2-1B0F-4FD9-AE1B-0D46C867A44D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C07B3F1D-EBDB-6E49-B32A-DF190621C7F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -11221,11 +11578,13 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC0B5800-7378-4461-8385-63F38BCD66A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A59A28D-4F07-854E-A3F0-BD7D01A0CFC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -11257,11 +11616,13 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B15F555-532C-444D-992B-CFBD4E1B9DA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B5E21A3-DC70-7649-B50F-6CEB6C32846F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -11293,11 +11654,13 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EC4F032-173E-4888-B11F-0F8E988361C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16298D02-BAD0-7C43-8DE5-D9951F86709F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -11329,11 +11692,13 @@
         <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B78BB35-9D8D-4C8D-8ACA-751928CEEFF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ACE8B3F-2634-DA49-8243-CE35FE9C3062}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -11360,10 +11725,10 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11396,10 +11761,10 @@
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11764,11 +12129,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9129B2-55FB-BA4B-835F-FD39575D247F}">
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA47" sqref="AA47"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11783,34 +12148,34 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1"/>
       <c r="M1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Y1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
       <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
         <v>1</v>
       </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
       <c r="Y2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Z2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
@@ -11916,36 +12281,36 @@
     <row r="17" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2"/>
       <c r="M18" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N18" s="2"/>
       <c r="Y18" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
         <v>1</v>
       </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
       <c r="M19" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
         <v>1</v>
       </c>
-      <c r="N19" t="s">
-        <v>2</v>
-      </c>
       <c r="Y19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="s">
         <v>1</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
@@ -12051,36 +12416,36 @@
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B32" s="2"/>
       <c r="M32" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N32" s="2"/>
       <c r="Y32" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
         <v>1</v>
       </c>
-      <c r="B33" t="s">
-        <v>2</v>
-      </c>
       <c r="M33" t="s">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
         <v>1</v>
       </c>
-      <c r="N33" t="s">
-        <v>2</v>
-      </c>
       <c r="Y33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="s">
         <v>1</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
@@ -12203,7 +12568,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12213,16 +12578,16 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -12267,16 +12632,16 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -12334,24 +12699,24 @@
   <dimension ref="A2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
